--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Activity Definition Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -384,125 +387,127 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -521,142 +526,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
+    <sheet name="Properties" r:id="rId4" sheetId="2"/>
+    <sheet name="Concepts" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -123,10 +124,28 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecated</t>
+  </si>
+  <si>
+    <t>Indicates that the concept is deprecated and should not be used</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Display</t>
@@ -518,6 +537,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,142 +586,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>37</v>
-      </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
+++ b/fhir/CodeSystem-ehealth-activitydefinition-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
